--- a/biology/Botanique/Acer_tataricum_subsp._ginnala/Acer_tataricum_subsp._ginnala.xlsx
+++ b/biology/Botanique/Acer_tataricum_subsp._ginnala/Acer_tataricum_subsp._ginnala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer tataricum subsp. ginnala est une sous-espèce de Acer tataricum, espèce d’érable de la section Ginnala. Elle fait partie de la famille des Aceraceae selon la classification classique, ou de celle des Sapindaceae selon la classification phylogénétique.
 Cette sous-espèce, parfois appelée « Érable du fleuve Amour » ou « Érable de l’Amour », est originaire d’Asie tempérée jusqu’au Japon.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acer ginnala Maxim.
 Acer theiferum W. P. Fang
@@ -545,7 +559,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuilles et fleurs d'Acer tataricum subsp. ginnala à l'arboretum de l'école du Breuil
